--- a/Proyectos/2016/Cambios/Solicitud_cambio_161003.xlsx
+++ b/Proyectos/2016/Cambios/Solicitud_cambio_161003.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="15480" windowHeight="8070" tabRatio="663"/>
@@ -30,7 +30,7 @@
     <definedName name="Ocupacion">[2]Parámetros!$B$22:$B$23</definedName>
     <definedName name="UEN">[3]Parámetros!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Datos Generales</t>
   </si>
@@ -285,18 +285,21 @@
   </si>
   <si>
     <t xml:space="preserve">Desactivar de catálogo los productos duplicados de Easy POS u. base producto nuevo tradicional y u. adicional producto nuevo tradicional, </t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -866,7 +869,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="45" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,6 +924,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,14 +948,8 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,7 +1017,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Presentación"/>
@@ -1158,7 +1164,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val=" Historial de Revisiones"/>
@@ -1232,7 +1238,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Información de Proyecto"/>
@@ -1554,17 +1560,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
@@ -1831,7 +1837,7 @@
     <col min="16133" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1839,14 +1845,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,13 +1861,13 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1871,13 +1877,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1886,14 +1892,14 @@
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1902,75 +1908,75 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="28"/>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="27" t="s">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="27" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="27" t="s">
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1">
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" outlineLevel="1">
+    <row r="13" spans="1:10" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="21" t="s">
         <v>39</v>
@@ -2010,7 +2016,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="51" outlineLevel="1">
+    <row r="14" spans="1:10" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
       <c r="C14" s="21" t="s">
         <v>40</v>
@@ -2025,7 +2031,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="38.25" outlineLevel="1">
+    <row r="15" spans="1:10" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="21" t="s">
         <v>41</v>
@@ -2040,7 +2046,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="38.25" outlineLevel="1">
+    <row r="16" spans="1:10" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="21" t="s">
         <v>42</v>
@@ -2055,7 +2061,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="89.25" outlineLevel="1">
+    <row r="17" spans="1:10" ht="89.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
       <c r="C17" s="21" t="s">
         <v>43</v>
@@ -2070,7 +2076,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="140.25" outlineLevel="1">
+    <row r="18" spans="1:10" ht="140.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="21" t="s">
         <v>45</v>
@@ -2085,7 +2091,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="140.25" outlineLevel="1">
+    <row r="19" spans="1:10" ht="140.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="21" t="s">
         <v>44</v>
@@ -2100,7 +2106,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="25.5" outlineLevel="1">
+    <row r="20" spans="1:10" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2123,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="25.5" outlineLevel="1">
+    <row r="21" spans="1:10" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
       <c r="C21" s="21" t="s">
         <v>53</v>
@@ -2132,7 +2138,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="38.25" outlineLevel="1">
+    <row r="22" spans="1:10" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
       <c r="C22" s="21" t="s">
         <v>54</v>
@@ -2147,7 +2153,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="51" outlineLevel="1">
+    <row r="23" spans="1:10" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="21" t="s">
         <v>55</v>
@@ -2162,7 +2168,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C24" s="9" t="s">
         <v>34</v>
       </c>
@@ -2171,19 +2177,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="7.5" customHeight="1">
+    <row r="25" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="7" t="s">
@@ -2194,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="7" t="s">
@@ -2202,7 +2208,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="7" t="s">
@@ -2210,7 +2216,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="7" t="s">
@@ -2218,7 +2224,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="7" t="s">
@@ -2226,7 +2232,7 @@
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="7" t="s">
@@ -2234,15 +2240,15 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="7" t="s">
@@ -2250,22 +2256,29 @@
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="30">
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C26:D26"/>
@@ -2282,9 +2295,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
@@ -2308,12 +2318,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Status xmlns="035E5738-9077-49AA-867C-265905AEBD06">Listo para revisión</Status>
+    <Owner xmlns="035E5738-9077-49AA-867C-265905AEBD06">
+      <UserInfo>
+        <DisplayName>Ra Acosta</DisplayName>
+        <AccountId>24</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2401,24 +2417,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Status xmlns="035E5738-9077-49AA-867C-265905AEBD06">Listo para revisión</Status>
-    <Owner xmlns="035E5738-9077-49AA-867C-265905AEBD06">
-      <UserInfo>
-        <DisplayName>Ra Acosta</DisplayName>
-        <AccountId>24</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F292331-53F9-4EF7-AEE3-BD24EFCEB3B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862920E9-66EB-4C3E-957A-EA8E4211520C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="035E5738-9077-49AA-867C-265905AEBD06"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2441,16 +2458,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862920E9-66EB-4C3E-957A-EA8E4211520C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F292331-53F9-4EF7-AEE3-BD24EFCEB3B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="035E5738-9077-49AA-867C-265905AEBD06"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>